--- a/Kebun.xlsx
+++ b/Kebun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_HOBI\Tanaman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795DBDC-29C1-48CF-AB82-7366B22B84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35AD56-7EFD-4C60-A1E5-54875EA9E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sawi</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>PenyemaianE</t>
+  </si>
+  <si>
+    <t>panen</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,6 +451,7 @@
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -478,7 +482,9 @@
         <v>44956</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
